--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -169,7 +169,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -371,7 +371,7 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8AAF1-3A64-4824-BFC8-3EEE12B7D5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF4322-F317-4CEA-B093-2DBA2AE21562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>formType</t>
   </si>
   <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -240,19 +237,22 @@
     <t>ภัยที่ผู้รับประกันภัยรับเสี่ยง</t>
   </si>
   <si>
-    <t>2023-08-31</t>
-  </si>
-  <si>
-    <t>[][มอบฉันทะ][][][]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>[|Limited|Test|Automation|0|O]</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>selectType</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -619,23 +619,22 @@
   <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
@@ -658,26 +657,24 @@
     <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
     <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
     <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
-    <col min="36" max="37" width="9" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.33203125" style="1" customWidth="1"/>
-    <col min="39" max="40" width="9" style="1" customWidth="1"/>
+    <col min="36" max="39" width="9" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" style="1" customWidth="1"/>
     <col min="41" max="41" width="10.109375" style="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.44140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="11.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.44140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="11.6640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="1" customWidth="1"/>
     <col min="46" max="46" width="17.21875" style="1" customWidth="1"/>
     <col min="47" max="47" width="18.44140625" style="1" customWidth="1"/>
     <col min="48" max="48" width="10.21875" style="1" customWidth="1"/>
     <col min="49" max="49" width="8.77734375" style="1" customWidth="1"/>
     <col min="50" max="54" width="2.6640625" style="1"/>
-    <col min="58" max="16383" width="2.6640625" style="1"/>
-    <col min="16384" max="16384" width="11.5546875" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -689,31 +686,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -788,13 +785,13 @@
         <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>39</v>
@@ -803,13 +800,13 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>44</v>
@@ -831,69 +828,69 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -901,54 +898,54 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" s="2"/>
-      <c r="AQ2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF4322-F317-4CEA-B093-2DBA2AE21562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A654AE96-6C7C-4DB3-BBA7-BCF9644AA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>selectType</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\05. detail1\06. Typecode 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A654AE96-6C7C-4DB3-BBA7-BCF9644AA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E879DF-BA9A-496B-BC8B-F42983A61C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>creationDate</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,14 +932,12 @@
       </c>
       <c r="AO2" s="2"/>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="AR2" s="3"/>
       <c r="AS2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>70</v>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\05. detail1\06. Typecode 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E879DF-BA9A-496B-BC8B-F42983A61C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91683D46-FCB3-43D8-A50C-7B3C5580DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,10 @@
     <t>selectType</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -937,7 +937,7 @@
         <v>72</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>70</v>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -1,47 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\05. detail1\06. Typecode 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91683D46-FCB3-43D8-A50C-7B3C5580DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A287C6-032F-4254-9E49-19416AFDFA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+  <si>
+    <t>typeCode</t>
+  </si>
   <si>
     <t>creationDate</t>
   </si>
   <si>
-    <t>typeCode</t>
-  </si>
-  <si>
     <t>contractNo</t>
   </si>
   <si>
+    <t>expireDate</t>
+  </si>
+  <si>
     <t>effectiveDate</t>
   </si>
   <si>
-    <t>expireDate</t>
-  </si>
-  <si>
     <t>receiveDate</t>
   </si>
   <si>
@@ -63,6 +63,9 @@
     <t>taxPayerId</t>
   </si>
   <si>
+    <t>selectType</t>
+  </si>
+  <si>
     <t>branchNo</t>
   </si>
   <si>
@@ -135,30 +138,30 @@
     <t>detail2</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>actionType</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>actionType</t>
-  </si>
-  <si>
     <t>arrayDetail</t>
   </si>
   <si>
     <t>relateParty</t>
   </si>
   <si>
+    <t>dupDutyAmount</t>
+  </si>
+  <si>
+    <t>issueNumber</t>
+  </si>
+  <si>
     <t>relateContract</t>
   </si>
   <si>
-    <t>dupDutyAmount</t>
-  </si>
-  <si>
-    <t>issueNumber</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -171,110 +174,98 @@
     <t>formType</t>
   </si>
   <si>
+    <t>YHIU4521</t>
+  </si>
+  <si>
+    <t>new_entry</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>สมหมาย</t>
+  </si>
+  <si>
+    <t>ดั่งใจหวัง</t>
+  </si>
+  <si>
+    <t>888/77</t>
+  </si>
+  <si>
+    <t>หมู่บ้านรื่นรนย์</t>
+  </si>
+  <si>
+    <t>ตำบลหนองใหญ่</t>
+  </si>
+  <si>
+    <t>อำเภอหนองใหญ่</t>
+  </si>
+  <si>
+    <t>จังหวัดนนทบุรี</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>ภัยที่ผู้รับประกันภัยรับเสี่ยง</t>
+  </si>
+  <si>
+    <t>[|Limited|Test|Automation|0|O]</t>
+  </si>
+  <si>
+    <t>U0105556078229000</t>
+  </si>
+  <si>
+    <t>AS9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
+  </si>
+  <si>
+    <t>0105556078229</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>YHIU4521</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
-    <t>new_entry</t>
-  </si>
-  <si>
-    <t>0105556078229</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1721000011382</t>
   </si>
   <si>
-    <t>สมหมาย</t>
-  </si>
-  <si>
-    <t>ดั่งใจหวัง</t>
-  </si>
-  <si>
-    <t>888/77</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>หมู่บ้านรื่นรนย์</t>
-  </si>
-  <si>
-    <t>ตำบลหนองใหญ่</t>
-  </si>
-  <si>
-    <t>อำเภอหนองใหญ่</t>
-  </si>
-  <si>
-    <t>จังหวัดนนทบุรี</t>
-  </si>
-  <si>
     <t>10600</t>
   </si>
   <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>ภัยที่ผู้รับประกันภัยรับเสี่ยง</t>
-  </si>
-  <si>
-    <t>U0105556078229000</t>
-  </si>
-  <si>
-    <t>AS9</t>
-  </si>
-  <si>
-    <t>[|Limited|Test|Automation|0|O]</t>
-  </si>
-  <si>
     <t>2024-08-01</t>
-  </si>
-  <si>
-    <t>selectType</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,13 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,7 +325,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -350,7 +337,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -397,23 +384,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,23 +419,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,344 +571,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
-    <col min="36" max="39" width="9" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="10.109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="12.77734375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="17.21875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.44140625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="10.21875" style="1" customWidth="1"/>
-    <col min="49" max="49" width="8.77734375" style="1" customWidth="1"/>
-    <col min="50" max="54" width="2.6640625" style="1"/>
-    <col min="58" max="16384" width="2.6640625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="P2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="S2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="W2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="AJ2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AV2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\05. detail1\06. Typecode 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A287C6-032F-4254-9E49-19416AFDFA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9F82F-BA02-4744-B6FC-06B48CE99982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -222,9 +222,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-12-31</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -733,16 +733,16 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -753,22 +753,22 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>52</v>
@@ -777,7 +777,7 @@
         <v>53</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>51</v>
@@ -786,10 +786,10 @@
         <v>54</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>55</v>
@@ -809,25 +809,25 @@
         <v>58</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
@@ -841,7 +841,7 @@
         <v>62</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>63</v>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9F82F-BA02-4744-B6FC-06B48CE99982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BD963-EFF4-48DC-B6A9-F9AE3BABBCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>2024-08-01</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2023DF-F4E5-4138-96DF-4D4DE5A264DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF5B98-13C4-4986-B97C-6ECF4BE28012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>ภัยที่ผู้รับประกันภัยรับเสี่ยง</t>
   </si>
   <si>
-    <t>[|Limited|Test|Automation|0|O]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
@@ -252,7 +249,10 @@
     <t>2024-08-01</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|Limited|Test|Automation||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -571,10 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,7 +731,7 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>75</v>
@@ -739,10 +740,10 @@
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -753,22 +754,22 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>52</v>
@@ -777,7 +778,7 @@
         <v>53</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>51</v>
@@ -786,10 +787,10 @@
         <v>54</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>55</v>
@@ -809,42 +810,41 @@
         <v>58</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
       <c r="AS2" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
